--- a/2des/03-bcd/aula11/indice.xlsx
+++ b/2des/03-bcd/aula11/indice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\03-bcd\aula11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC00896-0A3C-4020-8F6F-0562F01C3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9506BC-9FD3-4642-BCEF-C14916260140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>nome</t>
   </si>
@@ -81,13 +81,25 @@
     <t>(19)66666-6601</t>
   </si>
   <si>
-    <t>Tabela</t>
-  </si>
-  <si>
-    <t>Pesquisar</t>
-  </si>
-  <si>
     <t>(19)45798-8888</t>
+  </si>
+  <si>
+    <t>índice</t>
+  </si>
+  <si>
+    <t>Tabela de Clientes</t>
+  </si>
+  <si>
+    <t>Procurar o CPF</t>
+  </si>
+  <si>
+    <t>Tabela Índice por Chave</t>
+  </si>
+  <si>
+    <t>Tabela Índice por Nome</t>
+  </si>
+  <si>
+    <t>Procurar o Nome</t>
   </si>
 </sst>
 </file>
@@ -161,32 +173,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>75197</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>808463</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581526</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590085</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD2434A-AF2A-ACEE-9F2B-43EE994CDE65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8B3E12-0417-8941-0453-4CE104ABAB5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2401303" y="837197"/>
-          <a:ext cx="581526" cy="977566"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1417134" y="1793488"/>
+          <a:ext cx="2179134" cy="989671"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -215,22 +227,75 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>45118</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
+      <xdr:colOff>483219</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5013</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>105276</xdr:rowOff>
+      <xdr:colOff>18586</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5674A4CD-28E5-4F6C-B4C6-83F67B8831DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38820BD-7AA5-4B8E-A809-A0666615DBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4098073" y="859573"/>
+          <a:ext cx="362415" cy="1774903"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408878</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de Seta Reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E0223B-D248-E34B-9147-AAF03AACADA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -238,8 +303,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3885197" y="481263"/>
-          <a:ext cx="571500" cy="5013"/>
+          <a:off x="1844598" y="924622"/>
+          <a:ext cx="1765609" cy="2332463"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -268,31 +333,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>40105</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>135355</xdr:rowOff>
+      <xdr:colOff>748061</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>135355</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585439</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFE9A0C-107B-4AA8-B8F7-6078D90D87C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3219C577-694C-46E1-B9F6-BFCF8618FD68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3880184" y="516355"/>
-          <a:ext cx="571500" cy="190500"/>
+        <a:xfrm flipV="1">
+          <a:off x="4362915" y="771293"/>
+          <a:ext cx="1909646" cy="2341756"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -320,85 +385,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>65171</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175461</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>357768</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>606592</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125329</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9293</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF1B704-3BFF-49DB-8EF2-E87BC4C805B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAFA836-C50B-406D-B3F3-FDBA91E1B4C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3905250" y="556461"/>
-          <a:ext cx="541421" cy="330868"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40105</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586538</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130342</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5B3A62-F8D3-BF3E-EA17-7E06BC64C9FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6542171" y="481263"/>
-          <a:ext cx="546433" cy="220579"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1793488" y="1458951"/>
+          <a:ext cx="1816719" cy="1788842"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -690,48 +702,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
@@ -740,166 +757,261 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>15684559085</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>15684559085</v>
       </c>
-      <c r="G3">
-        <v>28788877755</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>5</v>
+      <c r="K3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>23503742034</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>23503742034</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>32249152500</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>28788877755</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>35221690420</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>32249152500</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>40341659100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>35221690420</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>57715972363</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>40341659100</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8">
         <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>59620146263</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>57715972363</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>28788877755</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>59620146161</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
         <v>4</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>59620146161</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
         <v>59620146263</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
         <v>3</v>
       </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>28788877755</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E11">
-    <sortCondition ref="E3:E11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:K11">
+    <sortCondition ref="J2:J11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
